--- a/3 打法/4 buff.xlsx
+++ b/3 打法/4 buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uploader's\Gdata\Elden Ring\3 打法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BE7E9E-6973-467D-BB98-247E12FE87F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA80451A-C10A-4B81-8BAC-0C080CECEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>作用范围\来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本行互不叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风暴鹰骨灰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需手持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>决心/骑士决心(仅一击60%/80%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需手持/副手决心bug，bug仅10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士壶碎片/亚历山大碎片(战技10%/15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,46 +267,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勇者肉块(20%30s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生存与其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灵药-削韧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂热香料(30%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待验证：香料、肉块、火焰力量不可共存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灵药-蓄力(15%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待验证：风暴鹰与立誓系列不可共存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灵药-持续治疗</t>
   </si>
   <si>
     <t>灵药-不耗蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满月/暗月(降魔抗10%/30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭洛斯剑(降抗物理20%元素5%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵药-提高抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏波利利嘶吼(25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油壶(火50%30s仅第一次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需手持/副手决心bug，bug仅10s (bug已修复)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需手持，因盾牌战技优先级高而不适合战技流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑头罩(推测10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅20s，可以用夏波利利嘶吼主动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百智权杖(降魔/圣抗推测10%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能加成岩石球(可加成其他重力法术)疑似bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵药-失衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热香料(30%60s)/勇者肉块(20%30s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调香师骨灰(20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格肯定有很多错误，慢慢更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋香料(10%40s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不视为临时脱手buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>临时脱手buff分为两个系列，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时群体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时单体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，两个系列内部不可共存，后施加的覆盖之前的，两个系列之间可以叠加；有一些临时脱手buff偏向生存所以没有列在本表格中，不过也会冲突</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时群体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时单体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系列</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>风暴鹰属于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临时群体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系列</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +489,31 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -354,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -367,6 +553,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,414 +855,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747B441-35D4-427E-96D9-7D03DAB04668}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="6" width="23.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.08203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="F17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="F22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="A33" s="11"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="F36" s="1" t="s">
-        <v>71</v>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="F44" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A33:A36"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3 打法/4 buff.xlsx
+++ b/3 打法/4 buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uploader's\Gdata\Elden Ring\3 打法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA80451A-C10A-4B81-8BAC-0C080CECEE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7EC442-238D-4B9E-B8A3-41FB021450A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>作用范围\来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
   </si>
   <si>
     <t>灵药-不耗蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满月/暗月(降魔抗10%/30%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,6 +469,26 @@
       </rPr>
       <t>系列</t>
     </r>
+  </si>
+  <si>
+    <t>满月/暗月(降魔抗10%60s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展翼大角(全抗15%30s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻伤(全抗20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月可以额外触发冻伤的减抗效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减抗的伤害提升效果受敌人初始抗性影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -540,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -855,13 +874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4747B441-35D4-427E-96D9-7D03DAB04668}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -873,17 +892,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="9" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -909,7 +928,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -919,50 +938,50 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
@@ -974,7 +993,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -986,25 +1005,25 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="E11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1015,335 +1034,358 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="C15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:7" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="C16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="F17" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="F19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="F22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>60</v>
-      </c>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="F46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A27:A41"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A3:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
